--- a/Image Comics.xlsx
+++ b/Image Comics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\comicsrepo\comicsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F244FAD-F47C-4268-B508-F31C6968330D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6EE31A-77BA-4D04-8414-281CA97FA8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="4580" windowWidth="28800" windowHeight="15380" xr2:uid="{7CD49E0A-5B6B-4790-953A-45564AC45D87}"/>
+    <workbookView xWindow="510" yWindow="770" windowWidth="35390" windowHeight="17110" activeTab="2" xr2:uid="{7CD49E0A-5B6B-4790-953A-45564AC45D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Riviste Cronologico" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Image 1</t>
   </si>
@@ -266,6 +266,184 @@
         <family val="2"/>
       </rPr>
       <t>Danny Miki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (inks) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Brian Murray</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (colors)</t>
+    </r>
+  </si>
+  <si>
+    <t>Image 2</t>
+  </si>
+  <si>
+    <t>Spawn #2,  WildC.A.T.s #1, Youngblood #, #1</t>
+  </si>
+  <si>
+    <r>
+      <t>Todd McFarlane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF990000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Todd McFarlane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (art) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steve Oliff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (colors) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reuben Rude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (colors) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Olyoptics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (colors)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rob Liefeld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hank Kanalz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (script) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rob Liefeld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (art) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0A83E3"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rob Liefeld</t>
     </r>
     <r>
       <rPr>
@@ -300,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +524,12 @@
       <color rgb="FF990000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -699,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C66F50-3C92-4A94-860B-70530F4503BE}">
-  <dimension ref="A5:D5"/>
+  <dimension ref="A5:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -727,6 +911,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>34304</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -734,10 +932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD5855A-440F-427B-BC6A-C4F7F049BA70}">
-  <dimension ref="A4:E6"/>
+  <dimension ref="A4:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,6 +979,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>34304</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -788,9 +997,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA02A8C-9CCC-4C8E-8F57-CAB3BE76C7D2}">
-  <dimension ref="A5:D23"/>
+  <dimension ref="A5:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -798,15 +1007,16 @@
   <cols>
     <col min="1" max="1" width="22.26953125" customWidth="1"/>
     <col min="3" max="3" width="19.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="124" customWidth="1"/>
+    <col min="4" max="4" width="172.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="31" x14ac:dyDescent="0.7">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -816,13 +1026,30 @@
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.7">
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>33756</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.7">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="B15" s="5">
         <v>1</v>
       </c>
@@ -832,13 +1059,30 @@
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.7">
+      <c r="E15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>33848</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="B23" s="5">
         <v>0</v>
       </c>
@@ -848,8 +1092,26 @@
       <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E23" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>33695</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Image Comics.xlsx
+++ b/Image Comics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\comicsrepo\comicsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6EE31A-77BA-4D04-8414-281CA97FA8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA72B33F-8458-4E6C-B025-87615A5E1FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="770" windowWidth="35390" windowHeight="17110" activeTab="2" xr2:uid="{7CD49E0A-5B6B-4790-953A-45564AC45D87}"/>
+    <workbookView xWindow="250" yWindow="4050" windowWidth="35390" windowHeight="17110" activeTab="3" xr2:uid="{7CD49E0A-5B6B-4790-953A-45564AC45D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Riviste Cronologico" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Image 1</t>
   </si>
@@ -472,6 +472,27 @@
       </rPr>
       <t> (colors)</t>
     </r>
+  </si>
+  <si>
+    <t>Giugno</t>
+  </si>
+  <si>
+    <t>Todd McFarlane (script) / Todd McFarlane (art) / Steve Oliff (colors) / Reuben Rude (colors) / Olyoptics (colors)</t>
+  </si>
+  <si>
+    <t>Aprile</t>
+  </si>
+  <si>
+    <t>Image #2</t>
+  </si>
+  <si>
+    <t>Image #1 #2</t>
+  </si>
+  <si>
+    <t>Image #1</t>
+  </si>
+  <si>
+    <t>Settembre</t>
   </si>
 </sst>
 </file>
@@ -558,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -569,6 +590,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -932,23 +955,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD5855A-440F-427B-BC6A-C4F7F049BA70}">
-  <dimension ref="A4:E7"/>
+  <dimension ref="A4:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
     <col min="2" max="2" width="26.08984375" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" customWidth="1"/>
     <col min="4" max="4" width="58.453125" customWidth="1"/>
     <col min="5" max="5" width="52.7265625" customWidth="1"/>
-    <col min="6" max="9" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="5" customWidth="1"/>
+    <col min="7" max="9" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -964,8 +988,9 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -978,8 +1003,11 @@
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="F6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -988,6 +1016,9 @@
       </c>
       <c r="D7" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA02A8C-9CCC-4C8E-8F57-CAB3BE76C7D2}">
   <dimension ref="A5:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1118,74 +1149,166 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BEBC91-C1C4-4A55-91D8-D2B290F9528F}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="22.7265625" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.26953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="124.90625" customWidth="1"/>
+    <col min="4" max="4" width="151.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.7">
       <c r="A2" s="4">
         <v>1992</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="8" t="s">
+    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.7">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="31" x14ac:dyDescent="0.7">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="8" t="s">
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="8" t="s">
+      <c r="E14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="5" t="s">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
